--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -22,15 +22,6 @@
     <t>Sunil</t>
   </si>
   <si>
-    <t>Amit Cerner</t>
-  </si>
-  <si>
-    <t>Chintu</t>
-  </si>
-  <si>
-    <t>Mumma</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -47,24 +38,6 @@
   </si>
   <si>
     <t>Hello World</t>
-  </si>
-  <si>
-    <t>I would have told gipal nooo
-Gopal
-You
-Link?
-Checking
-ok
-https://cerner.moveinsync.com/MBlr/employee.jsp#EmployeeLogin
-thanks bro
-bro
-netflix</t>
-  </si>
-  <si>
-    <t>Mane bhi utha dijoo</t>
-  </si>
-  <si>
-    <t>Spot Award</t>
   </si>
 </sst>
 </file>
@@ -422,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,13 +423,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -467,46 +440,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
